--- a/biology/Zoologie/Chelidonura_amoena/Chelidonura_amoena.xlsx
+++ b/biology/Zoologie/Chelidonura_amoena/Chelidonura_amoena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chelidonura amoena
 Chelidonura amoena est une espèce de mollusques gastéropodes de la famille des Aglajidae.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans la zone tropicale de la partie centrale de la région Indo-Pacifique, soit dans les eaux indonésiennes, malaisiennes, philippines et australiennes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans la zone tropicale de la partie centrale de la région Indo-Pacifique, soit dans les eaux indonésiennes, malaisiennes, philippines et australiennes.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat de prédilection correspond aux zones récifales entre le sommet et la pente.
 </t>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peut mesurer jusqu'à 5 cm.
 La livrée de cette espèce est variable mais le corps est souvent dans les tons blancs à jaune clair translucide avec sur les parties supérieures une certaine densité de taches noires en sur-impression.
@@ -609,7 +627,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce Cephalaspidé est benthique et a une activité tout aussi bien diurne que nocturne.
 </t>
@@ -640,7 +660,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Chelidonura amoena est un prédateur carnivore qui se nourrit a priori de petits vers plats.
 </t>
